--- a/results/metric_df/SNA_metrics.xlsx
+++ b/results/metric_df/SNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>3.938433140488909</v>
       </c>
       <c r="D2" t="n">
+        <v>3.938433140488909</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.938433140488909</v>
+      </c>
+      <c r="F2" t="n">
         <v>8.971863853051973</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.419</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>12.95</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -540,30 +556,36 @@
         <v>3.838393281831593</v>
       </c>
       <c r="D3" t="n">
+        <v>3.838393281831593</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.838393281831593</v>
+      </c>
+      <c r="F3" t="n">
         <v>5.458500000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.399</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -582,30 +604,36 @@
         <v>4.037903583503363</v>
       </c>
       <c r="D4" t="n">
+        <v>4.037903583503363</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.037903583503363</v>
+      </c>
+      <c r="F4" t="n">
         <v>6.456628571428572</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.462</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1.97</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -624,30 +652,36 @@
         <v>3.941532126214653</v>
       </c>
       <c r="D5" t="n">
+        <v>3.941532126214653</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.941532126214653</v>
+      </c>
+      <c r="F5" t="n">
         <v>4.206091890810919</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.425</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>5.06</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -666,30 +700,36 @@
         <v>3.850616806854433</v>
       </c>
       <c r="D6" t="n">
+        <v>3.850616806854433</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.850616806854433</v>
+      </c>
+      <c r="F6" t="n">
         <v>6.043937727106044</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.432</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>7.11</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -708,30 +748,36 @@
         <v>4.157103523039212</v>
       </c>
       <c r="D7" t="n">
+        <v>4.157103523039212</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.157103523039212</v>
+      </c>
+      <c r="F7" t="n">
         <v>8.752933333333335</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.455</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>4.09</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -750,30 +796,36 @@
         <v>3.795369541055058</v>
       </c>
       <c r="D8" t="n">
+        <v>3.795369541055058</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.795369541055058</v>
+      </c>
+      <c r="F8" t="n">
         <v>15.45596666666667</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.408</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>4.34</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -792,30 +844,36 @@
         <v>3.815165399585339</v>
       </c>
       <c r="D9" t="n">
+        <v>3.815165399585339</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.815165399585339</v>
+      </c>
+      <c r="F9" t="n">
         <v>40.1023102310231</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.465</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>1.88</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -834,30 +892,36 @@
         <v>4.148720083623762</v>
       </c>
       <c r="D10" t="n">
+        <v>4.148720083623762</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.148720083623762</v>
+      </c>
+      <c r="F10" t="n">
         <v>5.113211321132114</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.42</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>5.14</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -876,30 +940,36 @@
         <v>4.267455298719907</v>
       </c>
       <c r="D11" t="n">
+        <v>4.267455298719907</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.267455298719907</v>
+      </c>
+      <c r="F11" t="n">
         <v>3.356935693569356</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.414</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>10.96</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -918,30 +988,36 @@
         <v>4.021427922899613</v>
       </c>
       <c r="D12" t="n">
+        <v>4.021427922899613</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.021427922899613</v>
+      </c>
+      <c r="F12" t="n">
         <v>6.082259999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.432</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>5.11</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -960,30 +1036,36 @@
         <v>4.109653098323708</v>
       </c>
       <c r="D13" t="n">
+        <v>4.109653098323708</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.109653098323708</v>
+      </c>
+      <c r="F13" t="n">
         <v>32.88765</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>0.484</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1002,30 +1084,36 @@
         <v>3.432590204636147</v>
       </c>
       <c r="D14" t="n">
+        <v>3.432590204636147</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.432590204636147</v>
+      </c>
+      <c r="F14" t="n">
         <v>62.56280000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>0.367</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>8.18</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1044,30 +1132,36 @@
         <v>3.827510695943708</v>
       </c>
       <c r="D15" t="n">
+        <v>7.655021391887416</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.918236369513348</v>
+      </c>
+      <c r="F15" t="n">
         <v>52.00177500000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>0.4415</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>12.72</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1086,30 +1180,36 @@
         <v>3.589224409614446</v>
       </c>
       <c r="D16" t="n">
+        <v>7.178448819228891</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.952893427540636</v>
+      </c>
+      <c r="F16" t="n">
         <v>53.64115000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.4345</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>5.359999999999999</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1128,30 +1228,36 @@
         <v>3.982816231500002</v>
       </c>
       <c r="D17" t="n">
+        <v>3.982816231500002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.982816231500002</v>
+      </c>
+      <c r="F17" t="n">
         <v>30.35473333333334</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>0.388</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>1.06</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1170,30 +1276,36 @@
         <v>4.379913696596782</v>
       </c>
       <c r="D18" t="n">
+        <v>4.379913696596782</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.379913696596782</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.805880588058806</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>0.437</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>13.25</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-6)']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1212,30 +1324,36 @@
         <v>4.536346695756726</v>
       </c>
       <c r="D19" t="n">
+        <v>4.536346695756726</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.536346695756726</v>
+      </c>
+      <c r="F19" t="n">
         <v>2.665100000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>0.338</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>49.33</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['B3,O6']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-6)']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1254,30 +1372,36 @@
         <v>3.829348253889487</v>
       </c>
       <c r="D20" t="n">
+        <v>3.829348253889487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.829348253889487</v>
+      </c>
+      <c r="F20" t="n">
         <v>48.58260000000001</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>0.454</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>5.01</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-6)']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1296,30 +1420,36 @@
         <v>4.002608069703003</v>
       </c>
       <c r="D21" t="n">
+        <v>8.005216139406006</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.097181451668026</v>
+      </c>
+      <c r="F21" t="n">
         <v>54.97971428571428</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>0.4165</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>8.835000000000001</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-6)', 'Neu5Gc(a2-6)']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/results/metric_df/SNA_metrics.xlsx
+++ b/results/metric_df/SNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>-0.23474489279189</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.938433140488909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.938433140488909</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>3.938433140488909</v>
       </c>
       <c r="F2" t="n">
-        <v>8.971863853051973</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.606366257871422</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>-0.042915513358192</v>
       </c>
-      <c r="C3" t="n">
-        <v>3.838393281831593</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.838393281831593</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>3.838393281831593</v>
       </c>
       <c r="F3" t="n">
-        <v>5.458500000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.710303804634165</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>-0.2130918276813004</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.037903583503363</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.037903583503363</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>4.037903583503363</v>
       </c>
       <c r="F4" t="n">
-        <v>6.456628571428572</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.348697311327768</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>-0.2319383442907753</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.941532126214653</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.941532126214653</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>3.941532126214653</v>
       </c>
       <c r="F5" t="n">
-        <v>4.206091890810919</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.317888607400352</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +595,24 @@
       <c r="B6" t="n">
         <v>-0.2272599115145967</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.850616806854433</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.850616806854433</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>3.850616806854433</v>
       </c>
       <c r="F6" t="n">
-        <v>6.043937727106044</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.514990519687303</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -744,43 +624,24 @@
       <c r="B7" t="n">
         <v>-0.23474489279189</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.157103523039212</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.157103523039212</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>4.157103523039212</v>
       </c>
       <c r="F7" t="n">
-        <v>8.752933333333335</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.567167869949536</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -792,43 +653,24 @@
       <c r="B8" t="n">
         <v>-0.4792722396434881</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.795369541055058</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.795369541055058</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>3.795369541055058</v>
       </c>
       <c r="F8" t="n">
-        <v>15.45596666666667</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>2.767311647030066</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -840,43 +682,24 @@
       <c r="B9" t="n">
         <v>0.3055387634231647</v>
       </c>
-      <c r="C9" t="n">
-        <v>3.815165399585339</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.815165399585339</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>3.815165399585339</v>
       </c>
       <c r="F9" t="n">
-        <v>40.1023102310231</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>4.18839936262944</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -888,43 +711,24 @@
       <c r="B10" t="n">
         <v>0.08401178027934381</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.148720083623762</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.148720083623762</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>4.148720083623762</v>
       </c>
       <c r="F10" t="n">
-        <v>5.113211321132114</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.602115008964136</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -936,43 +740,24 @@
       <c r="B11" t="n">
         <v>2.235515654660152</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.267455298719907</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.267455298719907</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>4.267455298719907</v>
       </c>
       <c r="F11" t="n">
-        <v>3.356935693569356</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.051823740702372</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -984,43 +769,24 @@
       <c r="B12" t="n">
         <v>0.4094478860171773</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.021427922899613</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.021427922899613</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>4.021427922899613</v>
       </c>
       <c r="F12" t="n">
-        <v>6.082259999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.524596488965715</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1032,43 +798,24 @@
       <c r="B13" t="n">
         <v>0.2290450469350539</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.109653098323708</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.109653098323708</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>4.109653098323708</v>
       </c>
       <c r="F13" t="n">
-        <v>32.88765</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>3.747141517098556</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1080,43 +827,24 @@
       <c r="B14" t="n">
         <v>1.558956598708927</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.432590204636147</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.432590204636147</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>3.432590204636147</v>
       </c>
       <c r="F14" t="n">
-        <v>62.56280000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>6.534236809170182</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1128,43 +856,24 @@
       <c r="B15" t="n">
         <v>2.346755865104959</v>
       </c>
-      <c r="C15" t="n">
-        <v>3.827510695943708</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>7.655021391887416</v>
       </c>
-      <c r="E15" t="n">
-        <v>3.918236369513348</v>
-      </c>
       <c r="F15" t="n">
-        <v>52.00177500000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4415</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['2C5', '2C5']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>10.86242662883329</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1176,43 +885,24 @@
       <c r="B16" t="n">
         <v>2.912239284799641</v>
       </c>
-      <c r="C16" t="n">
-        <v>3.589224409614446</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>7.178448819228891</v>
       </c>
-      <c r="E16" t="n">
-        <v>3.952893427540636</v>
-      </c>
       <c r="F16" t="n">
-        <v>53.64115000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.4345</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5.359999999999999</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['2C5', '2C5']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>10.34295563644021</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1224,235 +914,169 @@
       <c r="B17" t="n">
         <v>1.024860747821688</v>
       </c>
-      <c r="C17" t="n">
-        <v>3.982816231500002</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.982816231500002</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>3.982816231500002</v>
       </c>
       <c r="F17" t="n">
-        <v>30.35473333333334</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.388</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>3.458546947373521</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)GalNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1364588673400938</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.379913696596782</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.379913696596782</v>
+        <v>-0.2757862638660996</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>4.379913696596782</v>
+        <v>3.815165399585339</v>
       </c>
       <c r="F18" t="n">
-        <v>1.805880588058806</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>4.18839936262944</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.392088628063353</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.536346695756726</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.536346695756726</v>
+        <v>-0.1364588673400938</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>4.536346695756726</v>
+        <v>4.379913696596782</v>
       </c>
       <c r="F19" t="n">
-        <v>2.665100000000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="H19" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['B3,O6']</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>['Neu5Gc(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.7544452237725767</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.134347350959704</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.829348253889487</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.829348253889487</v>
+        <v>2.392088628063353</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>3.829348253889487</v>
+        <v>4.536346695756726</v>
       </c>
       <c r="F20" t="n">
-        <v>48.58260000000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>['Neu5Gc(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>0.835051876839885</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
+          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.134347350959704</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3.829348253889487</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.088925940754403</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>2.264987926948429</v>
       </c>
-      <c r="C21" t="n">
-        <v>4.002608069703003</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-6)', 'Neu5Gc(a2-6)']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>8.005216139406006</v>
       </c>
-      <c r="E21" t="n">
-        <v>4.097181451668026</v>
-      </c>
-      <c r="F21" t="n">
-        <v>54.97971428571428</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4165</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8.835000000000001</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['2C5', '2C5']</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>['Neu5Gc(a2-6)', 'Neu5Gc(a2-6)']</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>['Sia(a2-6)']</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="F22" t="n">
+        <v>11.48447552997545</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
